--- a/xlsx/政治体制_intext.xlsx
+++ b/xlsx/政治体制_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
   <si>
     <t>政治体制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BD%93%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -29,13 +29,13 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治体制</t>
+    <t>政策_政策_政治学_政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -491,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>立憲政體</t>
+    <t>立宪政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%B6%E6%94%BF%E4%BD%93</t>
@@ -539,9 +536,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>獨裁政體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%94%BF%E4%BD%93</t>
   </si>
   <si>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%8A%9B</t>
@@ -605,21 +599,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4</t>
   </si>
   <si>
@@ -671,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>君主政體</t>
+    <t>君主政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E6%94%BF%E4%BD%93</t>
@@ -755,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
@@ -785,19 +773,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>選舉制度</t>
+    <t>选举制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -863,9 +848,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BD%97%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希罗多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -881,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>間接民主制</t>
+    <t>间接民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
   </si>
   <si>
-    <t>塞繆爾·亨廷頓</t>
+    <t>塞缪尔·亨廷顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8F%82%E4%B8%8E</t>
@@ -959,27 +941,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AE%B6_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由之家 (美國)</t>
+    <t>自由之家 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
@@ -1013,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -1025,19 +1001,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -1061,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1091,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%8A%A0%E8%B2%9D</t>
   </si>
   <si>
-    <t>穆加貝</t>
+    <t>穆加贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1109,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -1121,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -1133,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -1145,15 +1121,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -1169,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1181,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中華民國台灣地區</t>
+    <t>中华民国台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1229,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -1241,31 +1214,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>澳大利亞聯邦</t>
+    <t>澳大利亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1283,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>合眾國</t>
+    <t>合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
@@ -1295,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥合眾國</t>
+    <t>墨西哥合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF%E5%9B%BD</t>
@@ -1307,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
@@ -1331,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>安道爾公國</t>
+    <t>安道尔公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>親王國</t>
+    <t>亲王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -1349,9 +1319,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>安道爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
   </si>
   <si>
@@ -1361,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>大公國</t>
+    <t>大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1391,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>汗國</t>
+    <t>汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E5%A4%9A%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>博克多汗國</t>
+    <t>博克多汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%99%B6%E5%B0%94%E6%B1%97%E5%9B%BD</t>
@@ -1427,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9_(%E7%A7%B0%E8%B0%93)</t>
@@ -1451,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%98%87%E4%B8%B9%E5%9C%8B</t>
   </si>
   <si>
-    <t>埃及蘇丹國</t>
+    <t>埃及苏丹国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9B%BD</t>
@@ -1481,25 +1448,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙共和國</t>
+    <t>葡萄牙共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>希臘共和國</t>
+    <t>希腊共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>民國</t>
+    <t>民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1511,25 +1478,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>老撾人民民主共和國</t>
+    <t>老挝人民民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>孟加拉人民共和國</t>
+    <t>孟加拉人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1553,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>越南社會主義共和國</t>
+    <t>越南社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1571,31 +1532,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>伊斯蘭國家</t>
+    <t>伊斯兰国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗伊斯蘭共和國</t>
+    <t>阿富汗伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭共和國</t>
+    <t>伊朗伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴基斯坦伊斯蘭共和國</t>
+    <t>巴基斯坦伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>毛里塔尼亞伊斯蘭共和國</t>
+    <t>毛里塔尼亚伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%94%BF</t>
@@ -1607,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%85%E5%88%86%E5%BF%85%E8%A6%81%E6%9D%A1%E4%BB%B6</t>
@@ -1619,9 +1580,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B7%B4%E5%A5%91%E5%A4%AB</t>
   </si>
   <si>
@@ -1637,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1649,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%94%BF%E5%88%B6</t>
   </si>
   <si>
-    <t>代議政制</t>
+    <t>代议政制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1673,13 +1631,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>審議民主</t>
+    <t>审议民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA%E4%B8%BB%E4%B9%89</t>
@@ -1691,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產主義國家</t>
+    <t>共产主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -1703,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政體列表</t>
+    <t>政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
@@ -4409,7 +4367,7 @@
         <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4435,10 +4393,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4464,10 +4422,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4493,10 +4451,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>61</v>
@@ -4522,10 +4480,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -4551,10 +4509,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4580,10 +4538,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4609,10 +4567,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4638,10 +4596,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4696,10 +4654,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4725,10 +4683,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4754,10 +4712,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -4783,10 +4741,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4812,10 +4770,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4841,10 +4799,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4870,10 +4828,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4899,10 +4857,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -4928,10 +4886,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -4957,10 +4915,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4986,10 +4944,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5015,10 +4973,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5044,10 +5002,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -5073,10 +5031,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5131,10 +5089,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5160,10 +5118,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -5189,10 +5147,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -5218,10 +5176,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -5247,10 +5205,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5276,10 +5234,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5305,10 +5263,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5334,10 +5292,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>13</v>
@@ -5363,10 +5321,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5392,10 +5350,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -5421,10 +5379,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5450,10 +5408,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5479,10 +5437,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5508,10 +5466,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5537,10 +5495,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5566,10 +5524,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -5595,10 +5553,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5624,10 +5582,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5653,10 +5611,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5682,10 +5640,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5711,10 +5669,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5740,10 +5698,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5798,10 +5756,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5827,10 +5785,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>7</v>
@@ -5856,10 +5814,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>5</v>
@@ -5885,10 +5843,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5914,10 +5872,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -5972,10 +5930,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6001,10 +5959,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6030,10 +5988,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6059,10 +6017,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6088,10 +6046,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6117,10 +6075,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6146,10 +6104,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>12</v>
@@ -6175,10 +6133,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6204,10 +6162,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6233,10 +6191,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6262,10 +6220,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6291,10 +6249,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6320,10 +6278,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6349,10 +6307,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6407,10 +6365,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6436,10 +6394,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6465,10 +6423,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -6494,10 +6452,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6523,10 +6481,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6552,10 +6510,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6581,10 +6539,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6610,10 +6568,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6639,10 +6597,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>166</v>
+      </c>
+      <c r="F158" t="s">
         <v>167</v>
-      </c>
-      <c r="F158" t="s">
-        <v>168</v>
       </c>
       <c r="G158" t="n">
         <v>8</v>
@@ -6668,10 +6626,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6697,10 +6655,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6726,10 +6684,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6755,10 +6713,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6784,10 +6742,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6813,10 +6771,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6871,10 +6829,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6900,10 +6858,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G167" t="n">
         <v>17</v>
@@ -6929,10 +6887,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6958,10 +6916,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6987,10 +6945,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7016,10 +6974,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7045,10 +7003,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7074,10 +7032,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7103,10 +7061,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7132,10 +7090,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7161,10 +7119,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7190,10 +7148,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7219,10 +7177,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7248,10 +7206,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7277,10 +7235,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7306,10 +7264,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7335,10 +7293,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7364,10 +7322,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7393,10 +7351,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7422,10 +7380,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7451,10 +7409,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7480,10 +7438,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7509,10 +7467,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7538,10 +7496,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7567,10 +7525,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7596,10 +7554,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7625,10 +7583,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7654,10 +7612,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7683,10 +7641,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7712,10 +7670,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7741,10 +7699,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7770,10 +7728,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7799,10 +7757,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7828,10 +7786,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -7857,10 +7815,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7886,10 +7844,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7915,10 +7873,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7944,10 +7902,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7973,10 +7931,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -8002,10 +7960,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8031,10 +7989,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8060,10 +8018,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8089,10 +8047,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8118,10 +8076,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8147,10 +8105,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8176,10 +8134,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8205,10 +8163,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8234,10 +8192,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G213" t="n">
         <v>6</v>
@@ -8263,10 +8221,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8292,10 +8250,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8321,10 +8279,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8350,10 +8308,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8379,10 +8337,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8408,10 +8366,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8437,10 +8395,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8466,10 +8424,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -8495,10 +8453,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8524,10 +8482,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8553,10 +8511,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8582,10 +8540,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8611,10 +8569,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8640,10 +8598,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -8669,10 +8627,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8698,10 +8656,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8727,10 +8685,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G230" t="n">
         <v>5</v>
@@ -8756,10 +8714,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8785,10 +8743,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8814,10 +8772,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8843,10 +8801,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8872,10 +8830,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8901,10 +8859,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8930,10 +8888,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8959,10 +8917,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8988,10 +8946,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9017,10 +8975,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9046,10 +9004,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9075,10 +9033,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -9104,10 +9062,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9133,10 +9091,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9162,10 +9120,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9191,10 +9149,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9220,10 +9178,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9249,10 +9207,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -9278,10 +9236,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9307,10 +9265,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9336,10 +9294,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9365,10 +9323,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9394,10 +9352,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>13</v>
@@ -9423,10 +9381,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9452,10 +9410,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9481,10 +9439,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9510,10 +9468,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G257" t="n">
         <v>7</v>
@@ -9539,10 +9497,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9568,10 +9526,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>6</v>
@@ -9597,10 +9555,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>383</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9626,10 +9584,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9655,10 +9613,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>322</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9684,10 +9642,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9713,10 +9671,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9742,10 +9700,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9771,10 +9729,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9800,10 +9758,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9829,10 +9787,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G268" t="n">
         <v>5</v>
@@ -9858,10 +9816,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9887,10 +9845,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9916,10 +9874,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9945,10 +9903,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9974,10 +9932,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10003,10 +9961,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10032,10 +9990,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10061,10 +10019,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G276" t="n">
         <v>6</v>
@@ -10090,10 +10048,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10119,10 +10077,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>273</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10148,10 +10106,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10177,10 +10135,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10206,10 +10164,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10235,10 +10193,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10264,10 +10222,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10293,10 +10251,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10322,10 +10280,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10351,10 +10309,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10380,10 +10338,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10409,10 +10367,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -10438,10 +10396,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10467,10 +10425,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10496,10 +10454,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10525,10 +10483,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>160</v>
+      </c>
+      <c r="F292" t="s">
         <v>161</v>
-      </c>
-      <c r="F292" t="s">
-        <v>162</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10554,10 +10512,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10583,10 +10541,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G294" t="n">
         <v>5</v>
@@ -10612,10 +10570,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -10641,10 +10599,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F296" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
